--- a/resources/resources/project-nababan.xlsx
+++ b/resources/resources/project-nababan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himze\Documents\Apps\nababan\tarombo-nababan\resources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F23CB2-C1EB-46E3-BF6E-533132D3CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E05EF-E73D-4302-9C9C-ACF0500B13A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27960" yWindow="3210" windowWidth="34095" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32265" yWindow="2280" windowWidth="22020" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarombo Nababan" sheetId="2" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +1062,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0FC80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1203,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,18 +1386,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,6 +1419,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1433,9 +1433,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,6 +1451,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1774,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:BT308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B247" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="AG188" sqref="AG188"/>
+    <sheetView tabSelected="1" topLeftCell="X7" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="AU38" sqref="AU38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,11 +2001,11 @@
       </c>
     </row>
     <row r="17" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="2"/>
       <c r="U17" s="28"/>
       <c r="V17" s="10" t="s">
@@ -2018,9 +2030,9 @@
       </c>
     </row>
     <row r="18" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="2"/>
       <c r="U18" s="29"/>
       <c r="V18" s="7"/>
@@ -2039,9 +2051,9 @@
       </c>
     </row>
     <row r="19" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="2"/>
       <c r="U19" s="29"/>
       <c r="V19" s="6">
@@ -2058,9 +2070,9 @@
       </c>
     </row>
     <row r="20" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="2"/>
       <c r="U20" s="19"/>
       <c r="V20" s="10" t="s">
@@ -2110,10 +2122,10 @@
     <row r="22" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="88"/>
+      <c r="E22" s="84"/>
       <c r="U22" s="29"/>
       <c r="V22" s="6">
         <v>8</v>
@@ -2143,10 +2155,10 @@
     <row r="23" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="77"/>
+      <c r="E23" s="86"/>
       <c r="U23" s="19"/>
       <c r="V23" s="10" t="s">
         <v>20</v>
@@ -2157,7 +2169,7 @@
       <c r="AA23" s="11"/>
       <c r="AB23" s="38"/>
       <c r="AC23" s="28"/>
-      <c r="AD23" s="10" t="s">
+      <c r="AD23" s="99" t="s">
         <v>27</v>
       </c>
       <c r="AE23" s="27"/>
@@ -2191,7 +2203,7 @@
       <c r="V24" s="7"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="8"/>
-      <c r="AD24" s="33" t="s">
+      <c r="AD24" s="100" t="s">
         <v>71</v>
       </c>
       <c r="AF24" s="29"/>
@@ -2215,10 +2227,10 @@
     <row r="25" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="84"/>
       <c r="U25" s="29"/>
       <c r="AA25" s="29"/>
       <c r="AD25" s="6">
@@ -2244,10 +2256,10 @@
     <row r="26" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="77"/>
+      <c r="E26" s="86"/>
       <c r="U26" s="29"/>
       <c r="AA26" s="27"/>
       <c r="AB26" s="38"/>
@@ -2289,7 +2301,7 @@
       <c r="AG27" s="33"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="10" t="s">
+      <c r="AJ27" s="99" t="s">
         <v>111</v>
       </c>
       <c r="AK27" s="27"/>
@@ -2308,10 +2320,10 @@
     <row r="28" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="91">
+      <c r="D28" s="89">
         <v>1</v>
       </c>
-      <c r="E28" s="91"/>
+      <c r="E28" s="89"/>
       <c r="U28" s="29"/>
       <c r="AA28" s="29"/>
       <c r="AD28" s="6">
@@ -2323,7 +2335,7 @@
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="29"/>
-      <c r="AJ28" s="33" t="s">
+      <c r="AJ28" s="100" t="s">
         <v>114</v>
       </c>
       <c r="AL28" s="29"/>
@@ -2337,10 +2349,10 @@
     </row>
     <row r="29" spans="2:72" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="96"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6">
         <v>2</v>
@@ -2382,7 +2394,7 @@
         <v>189</v>
       </c>
       <c r="AF29" s="19"/>
-      <c r="AG29" s="10" t="s">
+      <c r="AG29" s="99" t="s">
         <v>108</v>
       </c>
       <c r="AH29" s="39"/>
@@ -2399,10 +2411,10 @@
     </row>
     <row r="30" spans="2:72" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="94"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="7"/>
       <c r="G30" s="10" t="s">
         <v>7</v>
@@ -2433,7 +2445,7 @@
       <c r="U30" s="8"/>
       <c r="W30" s="6"/>
       <c r="X30" s="26"/>
-      <c r="Y30" s="10" t="s">
+      <c r="Y30" s="99" t="s">
         <v>26</v>
       </c>
       <c r="Z30" s="25"/>
@@ -2441,7 +2453,7 @@
       <c r="AB30" s="34"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="7"/>
-      <c r="AG30" s="33" t="s">
+      <c r="AG30" s="100" t="s">
         <v>109</v>
       </c>
       <c r="AH30" s="1"/>
@@ -2459,10 +2471,10 @@
     </row>
     <row r="31" spans="2:72" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="8"/>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="94"/>
+      <c r="E31" s="91"/>
       <c r="F31" s="2"/>
       <c r="G31" s="7" t="s">
         <v>15</v>
@@ -2493,7 +2505,7 @@
       <c r="U31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="34"/>
-      <c r="Y31" s="33" t="s">
+      <c r="Y31" s="100" t="s">
         <v>85</v>
       </c>
       <c r="Z31" s="2"/>
@@ -2515,8 +2527,8 @@
     </row>
     <row r="32" spans="2:72" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="98"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2558,8 +2570,8 @@
     </row>
     <row r="33" spans="3:72" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="8"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2589,7 +2601,7 @@
       <c r="AH33" s="1"/>
       <c r="AL33" s="27"/>
       <c r="AM33" s="28"/>
-      <c r="AN33" s="10" t="s">
+      <c r="AN33" s="99" t="s">
         <v>123</v>
       </c>
       <c r="AO33" s="22"/>
@@ -2631,7 +2643,7 @@
       <c r="AD34" s="6"/>
       <c r="AH34" s="1"/>
       <c r="AL34" s="29"/>
-      <c r="AN34" s="33"/>
+      <c r="AN34" s="100"/>
       <c r="AO34" s="17"/>
       <c r="AP34" s="17"/>
       <c r="AQ34" s="17"/>
@@ -2645,10 +2657,10 @@
     </row>
     <row r="35" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="88"/>
+      <c r="E35" s="84"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2692,10 +2704,10 @@
     </row>
     <row r="36" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="6"/>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="77"/>
+      <c r="E36" s="86"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3045,7 +3057,7 @@
       </c>
       <c r="T42" s="11"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="10" t="s">
+      <c r="V42" s="99" t="s">
         <v>25</v>
       </c>
       <c r="W42" s="3"/>
@@ -3101,7 +3113,7 @@
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="33" t="s">
+      <c r="V43" s="100" t="s">
         <v>85</v>
       </c>
       <c r="W43" s="6"/>
@@ -3672,7 +3684,7 @@
       <c r="BJ59" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="BT59" s="75"/>
+      <c r="BT59" s="97"/>
     </row>
     <row r="60" spans="15:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O60" s="8"/>
@@ -3723,7 +3735,7 @@
       <c r="BJ60" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="BT60" s="75"/>
+      <c r="BT60" s="97"/>
     </row>
     <row r="61" spans="15:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O61" s="8"/>
@@ -6320,9 +6332,9 @@
       <c r="AD151" s="2"/>
       <c r="AE151" s="2"/>
       <c r="AF151" s="6"/>
-      <c r="AG151" s="92"/>
-      <c r="AH151" s="92"/>
-      <c r="AI151" s="92"/>
+      <c r="AG151" s="98"/>
+      <c r="AH151" s="98"/>
+      <c r="AI151" s="98"/>
     </row>
     <row r="152" spans="15:45" x14ac:dyDescent="0.25">
       <c r="O152" s="29"/>
@@ -8012,11 +8024,11 @@
       <c r="AB202" s="17"/>
       <c r="AC202" s="17"/>
       <c r="AD202" s="49"/>
-      <c r="AE202" s="74" t="s">
+      <c r="AE202" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="AF202" s="74"/>
-      <c r="AG202" s="74"/>
+      <c r="AF202" s="96"/>
+      <c r="AG202" s="96"/>
       <c r="AH202" s="17"/>
       <c r="AI202" s="17"/>
       <c r="AJ202" s="17"/>
@@ -9435,11 +9447,11 @@
       <c r="V243" s="17"/>
       <c r="W243" s="17"/>
       <c r="X243" s="17"/>
-      <c r="Y243" s="74" t="s">
+      <c r="Y243" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="Z243" s="74"/>
-      <c r="AA243" s="74"/>
+      <c r="Z243" s="96"/>
+      <c r="AA243" s="96"/>
       <c r="AB243" s="17"/>
       <c r="AC243" s="17"/>
       <c r="AD243" s="17"/>
@@ -10579,11 +10591,11 @@
       <c r="S276" s="17"/>
       <c r="T276" s="17"/>
       <c r="U276" s="17"/>
-      <c r="V276" s="74" t="s">
+      <c r="V276" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="W276" s="74"/>
-      <c r="X276" s="74"/>
+      <c r="W276" s="96"/>
+      <c r="X276" s="96"/>
       <c r="Y276" s="17"/>
       <c r="Z276" s="17"/>
       <c r="AA276" s="17"/>
@@ -11710,6 +11722,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AE202:AG202"/>
+    <mergeCell ref="Y243:AA243"/>
+    <mergeCell ref="V276:X276"/>
+    <mergeCell ref="BT59:BT60"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="AG151:AI151"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="B17:D20"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
@@ -11720,14 +11740,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="AE202:AG202"/>
-    <mergeCell ref="Y243:AA243"/>
-    <mergeCell ref="V276:X276"/>
-    <mergeCell ref="BT59:BT60"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="AG151:AI151"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
